--- a/results/mp/tinybert/toy-spam/confidence/42/stop-words-masking-0.2/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/42/stop-words-masking-0.2/avg_0.003_scores.xlsx
@@ -52,85 +52,88 @@
     <t>thin</t>
   </si>
   <si>
+    <t>however</t>
+  </si>
+  <si>
     <t>poor</t>
   </si>
   <si>
-    <t>however</t>
+    <t>disappointed</t>
+  </si>
+  <si>
+    <t>junk</t>
+  </si>
+  <si>
+    <t>broke</t>
   </si>
   <si>
     <t>returned</t>
   </si>
   <si>
-    <t>disappointed</t>
-  </si>
-  <si>
     <t>waste</t>
   </si>
   <si>
-    <t>broke</t>
-  </si>
-  <si>
-    <t>junk</t>
-  </si>
-  <si>
-    <t>pool</t>
+    <t>water</t>
+  </si>
+  <si>
+    <t>smaller</t>
+  </si>
+  <si>
+    <t>missing</t>
   </si>
   <si>
     <t>instead</t>
   </si>
   <si>
-    <t>smaller</t>
-  </si>
-  <si>
-    <t>water</t>
+    <t>guess</t>
   </si>
   <si>
     <t>small</t>
   </si>
   <si>
-    <t>guess</t>
+    <t>paint</t>
+  </si>
+  <si>
+    <t>broken</t>
+  </si>
+  <si>
+    <t>plastic</t>
   </si>
   <si>
     <t>okay</t>
   </si>
   <si>
-    <t>paint</t>
-  </si>
-  <si>
-    <t>broken</t>
+    <t>cheap</t>
+  </si>
+  <si>
+    <t>fell</t>
   </si>
   <si>
     <t>apart</t>
   </si>
   <si>
-    <t>cheap</t>
-  </si>
-  <si>
-    <t>plastic</t>
+    <t>di</t>
+  </si>
+  <si>
+    <t>pay</t>
+  </si>
+  <si>
+    <t>difficult</t>
   </si>
   <si>
     <t>ok</t>
   </si>
   <si>
-    <t>less</t>
-  </si>
-  <si>
-    <t>tried</t>
-  </si>
-  <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
     <t>thought</t>
   </si>
   <si>
+    <t>bit</t>
+  </si>
+  <si>
     <t>size</t>
   </si>
   <si>
-    <t>bit</t>
+    <t>picture</t>
   </si>
   <si>
     <t>though</t>
@@ -139,58 +142,64 @@
     <t>item</t>
   </si>
   <si>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>would</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
     <t>back</t>
   </si>
   <si>
-    <t>would</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>money</t>
-  </si>
-  <si>
-    <t>hard</t>
-  </si>
-  <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>better</t>
+    <t>price</t>
+  </si>
+  <si>
+    <t>box</t>
+  </si>
+  <si>
+    <t>could</t>
   </si>
   <si>
     <t>product</t>
   </si>
   <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>box</t>
-  </si>
-  <si>
-    <t>could</t>
+    <t>put</t>
+  </si>
+  <si>
+    <t>pieces</t>
+  </si>
+  <si>
+    <t>used</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>used</t>
+    <t>expected</t>
+  </si>
+  <si>
+    <t>buy</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>use</t>
   </si>
   <si>
-    <t>even</t>
-  </si>
-  <si>
-    <t>buy</t>
+    <t>made</t>
   </si>
   <si>
     <t>little</t>
@@ -199,27 +208,24 @@
     <t>like</t>
   </si>
   <si>
+    <t>toy</t>
+  </si>
+  <si>
     <t>much</t>
   </si>
   <si>
-    <t>get</t>
-  </si>
-  <si>
     <t>one</t>
   </si>
   <si>
-    <t>toy</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>wonderful</t>
+  </si>
+  <si>
     <t>awesome</t>
   </si>
   <si>
-    <t>wonderful</t>
-  </si>
-  <si>
     <t>amazing</t>
   </si>
   <si>
@@ -244,36 +250,39 @@
     <t>great</t>
   </si>
   <si>
+    <t>pleased</t>
+  </si>
+  <si>
     <t>loved</t>
   </si>
   <si>
     <t>perfect</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>friends</t>
   </si>
   <si>
-    <t>best</t>
+    <t>learn</t>
+  </si>
+  <si>
+    <t>enjoy</t>
   </si>
   <si>
     <t>happy</t>
   </si>
   <si>
-    <t>enjoy</t>
-  </si>
-  <si>
-    <t>learn</t>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>enjoyed</t>
   </si>
   <si>
     <t>every</t>
   </si>
   <si>
-    <t>enjoyed</t>
-  </si>
-  <si>
-    <t>christmas</t>
-  </si>
-  <si>
     <t>fun</t>
   </si>
   <si>
@@ -289,16 +298,7 @@
     <t>game</t>
   </si>
   <si>
-    <t>nice</t>
-  </si>
-  <si>
     <t>play</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>good</t>
   </si>
   <si>
     <t>positive</t>
@@ -659,7 +659,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q59"/>
+  <dimension ref="A1:Q61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -667,7 +667,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J1" t="s">
         <v>95</v>
@@ -728,13 +728,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9782608695652174</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="C3">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D3">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -746,19 +746,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K3">
-        <v>0.9076923076923077</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="L3">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="M3">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -799,16 +799,16 @@
         <v>6</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K4">
-        <v>0.875</v>
+        <v>0.8769230769230769</v>
       </c>
       <c r="L4">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="M4">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -849,7 +849,7 @@
         <v>4</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K5">
         <v>0.8518518518518519</v>
@@ -878,13 +878,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8275862068965517</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="C6">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D6">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -896,19 +896,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K6">
-        <v>0.8172043010752689</v>
+        <v>0.8279569892473119</v>
       </c>
       <c r="L6">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M6">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -920,7 +920,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -928,13 +928,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7746478873239436</v>
+        <v>0.71875</v>
       </c>
       <c r="C7">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="D7">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -946,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K7">
         <v>0.796875</v>
@@ -978,13 +978,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.703125</v>
+        <v>0.7183098591549296</v>
       </c>
       <c r="C8">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="D8">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -996,19 +996,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K8">
-        <v>0.6415094339622641</v>
+        <v>0.6792452830188679</v>
       </c>
       <c r="L8">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M8">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1028,13 +1028,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6842105263157895</v>
+        <v>0.6935483870967742</v>
       </c>
       <c r="C9">
-        <v>26</v>
+        <v>129</v>
       </c>
       <c r="D9">
-        <v>26</v>
+        <v>129</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1046,19 +1046,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K9">
-        <v>0.5552367288378766</v>
+        <v>0.5824964131994261</v>
       </c>
       <c r="L9">
-        <v>387</v>
+        <v>406</v>
       </c>
       <c r="M9">
-        <v>387</v>
+        <v>406</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1070,7 +1070,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>310</v>
+        <v>291</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1078,13 +1078,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6774193548387096</v>
+        <v>0.6727272727272727</v>
       </c>
       <c r="C10">
-        <v>126</v>
+        <v>37</v>
       </c>
       <c r="D10">
-        <v>126</v>
+        <v>37</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K10">
-        <v>0.5362318840579711</v>
+        <v>0.5507246376811594</v>
       </c>
       <c r="L10">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M10">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1128,13 +1128,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6554054054054054</v>
+        <v>0.6650485436893204</v>
       </c>
       <c r="C11">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="D11">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1146,19 +1146,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K11">
-        <v>0.5124481327800829</v>
+        <v>0.5311203319502075</v>
       </c>
       <c r="L11">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="M11">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1170,7 +1170,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>235</v>
+        <v>226</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1178,13 +1178,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6456310679611651</v>
+        <v>0.6578947368421053</v>
       </c>
       <c r="C12">
-        <v>133</v>
+        <v>25</v>
       </c>
       <c r="D12">
-        <v>133</v>
+        <v>25</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1196,19 +1196,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K12">
-        <v>0.4680327868852459</v>
+        <v>0.4754098360655737</v>
       </c>
       <c r="L12">
-        <v>571</v>
+        <v>580</v>
       </c>
       <c r="M12">
-        <v>571</v>
+        <v>580</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1220,7 +1220,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>649</v>
+        <v>640</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1228,13 +1228,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6363636363636364</v>
+        <v>0.6486486486486487</v>
       </c>
       <c r="C13">
-        <v>35</v>
+        <v>96</v>
       </c>
       <c r="D13">
-        <v>35</v>
+        <v>96</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1246,19 +1246,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K13">
-        <v>0.3883792048929663</v>
+        <v>0.4339622641509434</v>
       </c>
       <c r="L13">
-        <v>127</v>
+        <v>23</v>
       </c>
       <c r="M13">
-        <v>127</v>
+        <v>23</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1270,7 +1270,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>200</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1278,13 +1278,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6285714285714286</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="C14">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D14">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1296,19 +1296,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K14">
-        <v>0.3674698795180723</v>
+        <v>0.400611620795107</v>
       </c>
       <c r="L14">
-        <v>61</v>
+        <v>131</v>
       </c>
       <c r="M14">
-        <v>61</v>
+        <v>131</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1320,7 +1320,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>105</v>
+        <v>196</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1328,13 +1328,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6041666666666666</v>
+        <v>0.5966386554621849</v>
       </c>
       <c r="C15">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="D15">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1346,19 +1346,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K15">
-        <v>0.3650793650793651</v>
+        <v>0.3554216867469879</v>
       </c>
       <c r="L15">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="M15">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1370,7 +1370,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>120</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1378,13 +1378,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5714285714285714</v>
+        <v>0.5111111111111111</v>
       </c>
       <c r="C16">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="D16">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1396,31 +1396,31 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="J16" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K16">
+        <v>0.3416666666666667</v>
+      </c>
+      <c r="L16">
+        <v>41</v>
+      </c>
+      <c r="M16">
+        <v>41</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q16">
         <v>79</v>
-      </c>
-      <c r="K16">
-        <v>0.3583333333333333</v>
-      </c>
-      <c r="L16">
-        <v>43</v>
-      </c>
-      <c r="M16">
-        <v>43</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1428,7 +1428,7 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5714285714285714</v>
+        <v>0.5</v>
       </c>
       <c r="C17">
         <v>24</v>
@@ -1446,19 +1446,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K17">
-        <v>0.2587412587412588</v>
+        <v>0.3015873015873016</v>
       </c>
       <c r="L17">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="M17">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1470,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>106</v>
+        <v>132</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1478,13 +1478,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.527536231884058</v>
+        <v>0.5</v>
       </c>
       <c r="C18">
-        <v>182</v>
+        <v>27</v>
       </c>
       <c r="D18">
-        <v>182</v>
+        <v>27</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1496,19 +1496,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>163</v>
+        <v>27</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K18">
-        <v>0.2365591397849462</v>
+        <v>0.265625</v>
       </c>
       <c r="L18">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="M18">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1520,7 +1520,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>142</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1528,13 +1528,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5185185185185185</v>
+        <v>0.4985507246376812</v>
       </c>
       <c r="C19">
-        <v>28</v>
+        <v>172</v>
       </c>
       <c r="D19">
-        <v>28</v>
+        <v>172</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1546,19 +1546,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>26</v>
+        <v>173</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K19">
-        <v>0.234375</v>
+        <v>0.2150537634408602</v>
       </c>
       <c r="L19">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="M19">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1570,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>98</v>
+        <v>146</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1578,13 +1578,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4814814814814815</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="C20">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D20">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1596,19 +1596,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K20">
-        <v>0.208</v>
+        <v>0.2097902097902098</v>
       </c>
       <c r="L20">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M20">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1620,7 +1620,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>99</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1628,13 +1628,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.4603174603174603</v>
+        <v>0.4698795180722892</v>
       </c>
       <c r="C21">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="D21">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1646,19 +1646,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K21">
-        <v>0.1904761904761905</v>
+        <v>0.2048192771084337</v>
       </c>
       <c r="L21">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="M21">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1670,7 +1670,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>102</v>
+        <v>198</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1678,13 +1678,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.4216867469879518</v>
+        <v>0.4330708661417323</v>
       </c>
       <c r="C22">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="D22">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1696,19 +1696,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K22">
-        <v>0.1887550200803213</v>
+        <v>0.1825396825396825</v>
       </c>
       <c r="L22">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="M22">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1720,7 +1720,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>202</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1728,13 +1728,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4210526315789473</v>
+        <v>0.4259259259259259</v>
       </c>
       <c r="C23">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="D23">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1746,31 +1746,31 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K23">
-        <v>0.1657894736842105</v>
+        <v>0.176</v>
       </c>
       <c r="L23">
-        <v>189</v>
+        <v>22</v>
       </c>
       <c r="M23">
-        <v>190</v>
+        <v>22</v>
       </c>
       <c r="N23">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O23">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>951</v>
+        <v>103</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1778,13 +1778,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.3981042654028436</v>
+        <v>0.4218009478672986</v>
       </c>
       <c r="C24">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D24">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K24">
-        <v>0.1030640668523677</v>
+        <v>0.175284837861525</v>
       </c>
       <c r="L24">
-        <v>37</v>
+        <v>200</v>
       </c>
       <c r="M24">
-        <v>37</v>
+        <v>200</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1820,7 +1820,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>322</v>
+        <v>941</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1828,37 +1828,37 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.3937007874015748</v>
+        <v>0.4074074074074074</v>
       </c>
       <c r="C25">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="D25">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K25">
-        <v>0.1011673151750973</v>
+        <v>0.1058495821727019</v>
       </c>
       <c r="L25">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="M25">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1870,7 +1870,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>231</v>
+        <v>321</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1878,13 +1878,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.3828125</v>
+        <v>0.4</v>
       </c>
       <c r="C26">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="D26">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1896,19 +1896,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K26">
-        <v>0.09625668449197861</v>
+        <v>0.1050583657587549</v>
       </c>
       <c r="L26">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="M26">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1920,7 +1920,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>338</v>
+        <v>230</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1928,13 +1928,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.3666666666666666</v>
+        <v>0.390625</v>
       </c>
       <c r="C27">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D27">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1946,31 +1946,31 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K27">
-        <v>0.09297789336801041</v>
+        <v>0.0938337801608579</v>
       </c>
       <c r="L27">
-        <v>143</v>
+        <v>35</v>
       </c>
       <c r="M27">
-        <v>146</v>
+        <v>36</v>
       </c>
       <c r="N27">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="O27">
-        <v>0.02000000000000002</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P27" t="b">
         <v>1</v>
       </c>
       <c r="Q27">
-        <v>1395</v>
+        <v>338</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1978,13 +1978,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.360655737704918</v>
+        <v>0.3650793650793651</v>
       </c>
       <c r="C28">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D28">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1996,31 +1996,31 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K28">
-        <v>0.08275862068965517</v>
+        <v>0.09303838646714378</v>
       </c>
       <c r="L28">
-        <v>24</v>
+        <v>143</v>
       </c>
       <c r="M28">
-        <v>24</v>
+        <v>147</v>
       </c>
       <c r="N28">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O28">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q28">
-        <v>266</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2028,13 +2028,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.359375</v>
+        <v>0.3483146067415731</v>
       </c>
       <c r="C29">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D29">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2046,31 +2046,31 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K29">
-        <v>0.0507343124165554</v>
+        <v>0.04533333333333334</v>
       </c>
       <c r="L29">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="M29">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="N29">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O29">
-        <v>0.06999999999999995</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P29" t="b">
         <v>1</v>
       </c>
       <c r="Q29">
-        <v>711</v>
+        <v>716</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2078,13 +2078,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.3483146067415731</v>
+        <v>0.34375</v>
       </c>
       <c r="C30">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="D30">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2096,31 +2096,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>58</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="K30">
-        <v>0.03907637655417407</v>
-      </c>
-      <c r="L30">
-        <v>22</v>
-      </c>
-      <c r="M30">
-        <v>24</v>
-      </c>
-      <c r="N30">
-        <v>0.92</v>
-      </c>
-      <c r="O30">
-        <v>0.07999999999999996</v>
-      </c>
-      <c r="P30" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q30">
-        <v>541</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2128,13 +2104,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.2821782178217822</v>
+        <v>0.3415841584158416</v>
       </c>
       <c r="C31">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="D31">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2146,31 +2122,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>145</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="K31">
-        <v>0.03267045454545454</v>
-      </c>
-      <c r="L31">
-        <v>23</v>
-      </c>
-      <c r="M31">
-        <v>24</v>
-      </c>
-      <c r="N31">
-        <v>0.96</v>
-      </c>
-      <c r="O31">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="P31" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q31">
-        <v>681</v>
+        <v>133</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2178,13 +2130,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.2525773195876289</v>
+        <v>0.2551020408163265</v>
       </c>
       <c r="C32">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="D32">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2196,7 +2148,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>145</v>
+        <v>73</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2204,13 +2156,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.2346938775510204</v>
+        <v>0.2525773195876289</v>
       </c>
       <c r="C33">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="D33">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2222,7 +2174,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>75</v>
+        <v>145</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2230,13 +2182,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.2307692307692308</v>
+        <v>0.2371134020618557</v>
       </c>
       <c r="C34">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D34">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2248,7 +2200,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>90</v>
+        <v>74</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2256,13 +2208,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.213768115942029</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="C35">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="D35">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2274,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>217</v>
+        <v>91</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2282,13 +2234,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.2071428571428572</v>
+        <v>0.2065217391304348</v>
       </c>
       <c r="C36">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="D36">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2300,7 +2252,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>111</v>
+        <v>219</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2308,25 +2260,25 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.2050520059435364</v>
+        <v>0.205</v>
       </c>
       <c r="C37">
-        <v>138</v>
+        <v>41</v>
       </c>
       <c r="D37">
-        <v>139</v>
+        <v>41</v>
       </c>
       <c r="E37">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F37">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H37">
-        <v>535</v>
+        <v>159</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2334,25 +2286,25 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.2033898305084746</v>
+        <v>0.2</v>
       </c>
       <c r="C38">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="D38">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F38">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H38">
-        <v>94</v>
+        <v>252</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2360,13 +2312,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.1867088607594937</v>
+        <v>0.1949152542372881</v>
       </c>
       <c r="C39">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="D39">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2378,7 +2330,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>257</v>
+        <v>95</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2386,25 +2338,25 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.185</v>
+        <v>0.1931649331352155</v>
       </c>
       <c r="C40">
-        <v>37</v>
+        <v>130</v>
       </c>
       <c r="D40">
-        <v>37</v>
+        <v>131</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F40">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40">
-        <v>163</v>
+        <v>543</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2412,25 +2364,25 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.1746031746031746</v>
+        <v>0.1869158878504673</v>
       </c>
       <c r="C41">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="D41">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="E41">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F41">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H41">
-        <v>260</v>
+        <v>174</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2438,13 +2390,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.1728971962616822</v>
+        <v>0.1740506329113924</v>
       </c>
       <c r="C42">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="D42">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2456,7 +2408,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>177</v>
+        <v>261</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2464,25 +2416,25 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.1677704194260486</v>
+        <v>0.1714285714285714</v>
       </c>
       <c r="C43">
-        <v>76</v>
+        <v>24</v>
       </c>
       <c r="D43">
-        <v>77</v>
+        <v>24</v>
       </c>
       <c r="E43">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F43">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43">
-        <v>377</v>
+        <v>116</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2490,13 +2442,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.1613832853025937</v>
+        <v>0.1642651296829971</v>
       </c>
       <c r="C44">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D44">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E44">
         <v>0.02</v>
@@ -2508,7 +2460,7 @@
         <v>1</v>
       </c>
       <c r="H44">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2516,13 +2468,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.1570680628272251</v>
+        <v>0.162303664921466</v>
       </c>
       <c r="C45">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D45">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2534,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2542,13 +2494,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.1528662420382166</v>
+        <v>0.1592356687898089</v>
       </c>
       <c r="C46">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D46">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2560,7 +2512,7 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2568,25 +2520,25 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.1423220973782771</v>
+        <v>0.1456953642384106</v>
       </c>
       <c r="C47">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="D47">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F47">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H47">
-        <v>229</v>
+        <v>387</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2594,7 +2546,7 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.1257142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="C48">
         <v>22</v>
@@ -2612,7 +2564,7 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>153</v>
+        <v>132</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2620,25 +2572,25 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.1255060728744939</v>
+        <v>0.1420765027322404</v>
       </c>
       <c r="C49">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D49">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E49">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F49">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H49">
-        <v>216</v>
+        <v>157</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2646,25 +2598,25 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.1229946524064171</v>
+        <v>0.1379310344827586</v>
       </c>
       <c r="C50">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D50">
         <v>25</v>
       </c>
       <c r="E50">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="F50">
-        <v>0.92</v>
+        <v>0.96</v>
       </c>
       <c r="G50" t="b">
         <v>1</v>
       </c>
       <c r="H50">
-        <v>164</v>
+        <v>150</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2672,25 +2624,25 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.09863013698630137</v>
+        <v>0.1283018867924528</v>
       </c>
       <c r="C51">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D51">
         <v>36</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="F51">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H51">
-        <v>329</v>
+        <v>231</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2698,25 +2650,25 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.09677419354838709</v>
+        <v>0.125</v>
       </c>
       <c r="C52">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D52">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E52">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F52">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="G52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H52">
-        <v>252</v>
+        <v>168</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2724,25 +2676,25 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.09014084507042254</v>
+        <v>0.1101694915254237</v>
       </c>
       <c r="C53">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D53">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F53">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H53">
-        <v>323</v>
+        <v>315</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2750,25 +2702,25 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.08501118568232663</v>
+        <v>0.1088709677419355</v>
       </c>
       <c r="C54">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D54">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="E54">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F54">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H54">
-        <v>409</v>
+        <v>221</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2776,25 +2728,25 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.07425742574257425</v>
+        <v>0.09944751381215469</v>
       </c>
       <c r="C55">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D55">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="E55">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="F55">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="G55" t="b">
         <v>1</v>
       </c>
       <c r="H55">
-        <v>561</v>
+        <v>326</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2802,25 +2754,25 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.06338028169014084</v>
+        <v>0.0949367088607595</v>
       </c>
       <c r="C56">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D56">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E56">
-        <v>0.23</v>
+        <v>0.03</v>
       </c>
       <c r="F56">
-        <v>0.77</v>
+        <v>0.97</v>
       </c>
       <c r="G56" t="b">
         <v>1</v>
       </c>
       <c r="H56">
-        <v>399</v>
+        <v>286</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2828,25 +2780,25 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.05841121495327103</v>
+        <v>0.08501118568232663</v>
       </c>
       <c r="C57">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="D57">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="E57">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="F57">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="G57" t="b">
         <v>1</v>
       </c>
       <c r="H57">
-        <v>403</v>
+        <v>409</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2854,25 +2806,25 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.05505761843790013</v>
+        <v>0.0757825370675453</v>
       </c>
       <c r="C58">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D58">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="E58">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="F58">
-        <v>0.77</v>
+        <v>0.98</v>
       </c>
       <c r="G58" t="b">
         <v>1</v>
       </c>
       <c r="H58">
-        <v>738</v>
+        <v>561</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2880,25 +2832,77 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.0460122699386503</v>
+        <v>0.06125574272588055</v>
       </c>
       <c r="C59">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D59">
+        <v>42</v>
+      </c>
+      <c r="E59">
+        <v>0.05</v>
+      </c>
+      <c r="F59">
+        <v>0.95</v>
+      </c>
+      <c r="G59" t="b">
+        <v>1</v>
+      </c>
+      <c r="H59">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B60">
+        <v>0.06088992974238876</v>
+      </c>
+      <c r="C60">
+        <v>26</v>
+      </c>
+      <c r="D60">
         <v>33</v>
       </c>
-      <c r="E59">
-        <v>0.09</v>
-      </c>
-      <c r="F59">
-        <v>0.91</v>
-      </c>
-      <c r="G59" t="b">
-        <v>1</v>
-      </c>
-      <c r="H59">
-        <v>622</v>
+      <c r="E60">
+        <v>0.21</v>
+      </c>
+      <c r="F60">
+        <v>0.79</v>
+      </c>
+      <c r="G60" t="b">
+        <v>1</v>
+      </c>
+      <c r="H60">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B61">
+        <v>0.05102040816326531</v>
+      </c>
+      <c r="C61">
+        <v>40</v>
+      </c>
+      <c r="D61">
+        <v>50</v>
+      </c>
+      <c r="E61">
+        <v>0.2</v>
+      </c>
+      <c r="F61">
+        <v>0.8</v>
+      </c>
+      <c r="G61" t="b">
+        <v>1</v>
+      </c>
+      <c r="H61">
+        <v>744</v>
       </c>
     </row>
   </sheetData>
